--- a/Obskaya bay invasive species/Potential species distibution.xlsx
+++ b/Obskaya bay invasive species/Potential species distibution.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
   <si>
     <t>Из какого источника</t>
   </si>
@@ -406,9 +406,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -487,8 +487,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,39 +571,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,29 +594,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,42 +608,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -624,6 +624,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -636,79 +750,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,85 +780,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,30 +815,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -881,6 +857,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -896,13 +881,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,153 +904,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1420,8 +1420,8 @@
   <sheetPr/>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1436,7 +1436,6 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1447,6 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2"/>
       <c r="E2" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1458,6 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3"/>
       <c r="E3" t="s">
         <v>6</v>
       </c>
@@ -1472,7 +1469,6 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4"/>
       <c r="E4" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1480,6 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5"/>
       <c r="E5" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1491,6 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6"/>
       <c r="E6" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +1502,6 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7"/>
       <c r="E7" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1513,6 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8"/>
       <c r="D8" t="s">
         <v>16</v>
       </c>
@@ -1535,7 +1527,6 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9"/>
       <c r="E9" t="s">
         <v>19</v>
       </c>
@@ -1547,7 +1538,6 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10"/>
       <c r="E10" t="s">
         <v>21</v>
       </c>
@@ -1559,7 +1549,6 @@
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11"/>
       <c r="E11" t="s">
         <v>23</v>
       </c>
@@ -1571,7 +1560,6 @@
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12"/>
       <c r="E12" t="s">
         <v>25</v>
       </c>
@@ -1583,7 +1571,6 @@
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -1595,7 +1582,6 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14"/>
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -1607,7 +1593,6 @@
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -1622,7 +1607,6 @@
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16"/>
       <c r="E16" t="s">
         <v>34</v>
       </c>
@@ -1631,192 +1615,257 @@
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>47</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5"/>
@@ -1841,7 +1890,6 @@
       <c r="B54" t="s">
         <v>66</v>
       </c>
-      <c r="C54"/>
       <c r="E54" t="s">
         <v>67</v>
       </c>
@@ -1853,7 +1901,6 @@
       <c r="B55" t="s">
         <v>66</v>
       </c>
-      <c r="C55"/>
       <c r="E55" t="s">
         <v>69</v>
       </c>
@@ -1865,7 +1912,6 @@
       <c r="B56" t="s">
         <v>66</v>
       </c>
-      <c r="C56"/>
       <c r="E56" t="s">
         <v>71</v>
       </c>
@@ -1877,7 +1923,6 @@
       <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="C57"/>
       <c r="D57" t="s">
         <v>73</v>
       </c>
@@ -1892,7 +1937,6 @@
       <c r="B58" t="s">
         <v>66</v>
       </c>
-      <c r="C58"/>
       <c r="D58" t="s">
         <v>76</v>
       </c>
@@ -1907,7 +1951,6 @@
       <c r="B59" t="s">
         <v>66</v>
       </c>
-      <c r="C59"/>
       <c r="D59" t="s">
         <v>79</v>
       </c>
@@ -1922,7 +1965,6 @@
       <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="C60"/>
       <c r="D60" t="s">
         <v>82</v>
       </c>
@@ -1937,7 +1979,6 @@
       <c r="B63" t="s">
         <v>84</v>
       </c>
-      <c r="C63"/>
       <c r="E63" t="s">
         <v>85</v>
       </c>
@@ -1949,7 +1990,6 @@
       <c r="B64" t="s">
         <v>84</v>
       </c>
-      <c r="C64"/>
       <c r="D64" t="s">
         <v>87</v>
       </c>
@@ -1964,7 +2004,6 @@
       <c r="B65" t="s">
         <v>84</v>
       </c>
-      <c r="C65"/>
       <c r="D65" t="s">
         <v>90</v>
       </c>
@@ -1979,7 +2018,6 @@
       <c r="B66" t="s">
         <v>84</v>
       </c>
-      <c r="C66"/>
       <c r="E66" t="s">
         <v>93</v>
       </c>
@@ -1991,7 +2029,6 @@
       <c r="B67" t="s">
         <v>84</v>
       </c>
-      <c r="C67"/>
       <c r="E67" t="s">
         <v>94</v>
       </c>
@@ -2003,7 +2040,6 @@
       <c r="B68" t="s">
         <v>84</v>
       </c>
-      <c r="C68"/>
       <c r="E68" t="s">
         <v>96</v>
       </c>
@@ -2166,7 +2202,6 @@
       <c r="B84" t="s">
         <v>98</v>
       </c>
-      <c r="C84"/>
       <c r="D84" t="s">
         <v>126</v>
       </c>
@@ -2191,6 +2226,38 @@
     <hyperlink ref="B14" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
     <hyperlink ref="B15" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
     <hyperlink ref="B16" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B17" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B18" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B19" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B20" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B21" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B22" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B23" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B24" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B25" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B26" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B27" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B28" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B29" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B30" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B31" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B32" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B33" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B34" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B35" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B36" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B37" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B38" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B39" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B40" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B41" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B42" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B43" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B44" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B45" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B46" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B47" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
+    <hyperlink ref="B48" r:id="rId1" display="http://www.sevin.ru/top100worst/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obskaya bay invasive species/Potential species distibution.xlsx
+++ b/Obskaya bay invasive species/Potential species distibution.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="138">
   <si>
     <t>Из какого источника</t>
   </si>
@@ -398,6 +398,36 @@
   </si>
   <si>
     <t>GBIF.org (11 January 2022) GBIF Occurrence Download  https://doi.org/10.15468/dl.t957bv</t>
+  </si>
+  <si>
+    <t>Scolelepsis bonnieri</t>
+  </si>
+  <si>
+    <t>Hopkins et al 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkmaria romijni </t>
+  </si>
+  <si>
+    <t>Caprella mutica</t>
+  </si>
+  <si>
+    <t>Monocorophium sextonae</t>
+  </si>
+  <si>
+    <t>Cordylophora caspia</t>
+  </si>
+  <si>
+    <t>Gonionemus vertens</t>
+  </si>
+  <si>
+    <t>Ensis americanus</t>
+  </si>
+  <si>
+    <t>Petricolaria pholadiformis</t>
+  </si>
+  <si>
+    <t>Crepidula fornicata</t>
   </si>
 </sst>
 </file>
@@ -405,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -487,6 +517,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -495,6 +532,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -504,82 +610,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,9 +623,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,19 +654,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,37 +768,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,121 +810,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,30 +845,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -899,6 +905,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -920,7 +950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,73 +959,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1004,64 +1034,64 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1418,10 +1448,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2207,6 +2237,78 @@
       </c>
       <c r="E84" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
